--- a/app/src/stored-data/dataGenerated.xlsx
+++ b/app/src/stored-data/dataGenerated.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet name="SignUp Data" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -28,6 +31,191 @@
     </bk>
   </cellMetadata>
 </metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>2026-02-08 09:42:00</t>
+  </si>
+  <si>
+    <t>William Anderson</t>
+  </si>
+  <si>
+    <t>6503885804</t>
+  </si>
+  <si>
+    <t>william12554@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:00:25</t>
+  </si>
+  <si>
+    <t>Kevin Martin</t>
+  </si>
+  <si>
+    <t>2022973898</t>
+  </si>
+  <si>
+    <t>kevin17832@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:05:50</t>
+  </si>
+  <si>
+    <t>Noah Fernandez</t>
+  </si>
+  <si>
+    <t>4152324975</t>
+  </si>
+  <si>
+    <t>noah41581@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:09:07</t>
+  </si>
+  <si>
+    <t>Amanda King</t>
+  </si>
+  <si>
+    <t>6173523882</t>
+  </si>
+  <si>
+    <t>amanda39733@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:25:13</t>
+  </si>
+  <si>
+    <t>Ava Wright</t>
+  </si>
+  <si>
+    <t>6469489000</t>
+  </si>
+  <si>
+    <t>ava5017@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:27:53</t>
+  </si>
+  <si>
+    <t>Sarah Theadore</t>
+  </si>
+  <si>
+    <t>2029648976</t>
+  </si>
+  <si>
+    <t>sarah65649@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:40:39</t>
+  </si>
+  <si>
+    <t>Mark Anderson</t>
+  </si>
+  <si>
+    <t>4159412846</t>
+  </si>
+  <si>
+    <t>mark30403@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:44:13</t>
+  </si>
+  <si>
+    <t>Anna Perez</t>
+  </si>
+  <si>
+    <t>2022629751</t>
+  </si>
+  <si>
+    <t>anna45724@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:48:47</t>
+  </si>
+  <si>
+    <t>Lucas Campbell</t>
+  </si>
+  <si>
+    <t>2019901971</t>
+  </si>
+  <si>
+    <t>lucas18809@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 10:55:30</t>
+  </si>
+  <si>
+    <t>Daniel Turner</t>
+  </si>
+  <si>
+    <t>3053304765</t>
+  </si>
+  <si>
+    <t>daniel21429@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 11:18:39</t>
+  </si>
+  <si>
+    <t>Thomas Nelson</t>
+  </si>
+  <si>
+    <t>6505665339</t>
+  </si>
+  <si>
+    <t>thomas9587@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 11:24:03</t>
+  </si>
+  <si>
+    <t>Chloe Nelson</t>
+  </si>
+  <si>
+    <t>6509016559</t>
+  </si>
+  <si>
+    <t>chloe34996@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 11:32:06</t>
+  </si>
+  <si>
+    <t>Elizabeth Moore</t>
+  </si>
+  <si>
+    <t>3127499466</t>
+  </si>
+  <si>
+    <t>elizabeth18388@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 11:35:44</t>
+  </si>
+  <si>
+    <t>Ryan Phillips</t>
+  </si>
+  <si>
+    <t>6173717907</t>
+  </si>
+  <si>
+    <t>ryan36357@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-08 11:46:05</t>
+  </si>
+  <si>
+    <t>Elizabeth Lewis</t>
+  </si>
+  <si>
+    <t>4157336114</t>
+  </si>
+  <si>
+    <t>elizabeth55251@mailinator.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,79 +585,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" t="str" s="0">
         <v>Timestamp</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" t="str" s="0">
         <v>Full Name</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" t="str" s="0">
         <v>Phone Number</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" t="str" s="0">
         <v>Email</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" t="str" s="0">
         <v>2026-02-08 02:42:39</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" t="str" s="0">
         <v>Lily Martin</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" t="str" s="0">
         <v>9498736462</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="str" s="0">
         <v>lily50559@mailinator.com</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" t="str" s="0">
         <v>2026-02-08 02:43:09</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" t="str" s="0">
         <v>Caleb Fernandez</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" t="str" s="0">
         <v>2135764101</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" t="str" s="0">
         <v>caleb80862@mailinator.com</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" t="str" s="0">
         <v>2026-02-08 02:45:05</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" t="str" s="0">
         <v>Amanda Wilson</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" t="str" s="0">
         <v>9498882609</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="str" s="0">
         <v>amanda97078@mailinator.com</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" t="str" s="0">
         <v>2026-02-08 02:45:34</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" t="str" s="0">
         <v>Nathan Wright</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" t="str" s="0">
         <v>8185909974</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" t="str" s="0">
         <v>nathan26666@mailinator.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/stored-data/dataGenerated.xlsx
+++ b/app/src/stored-data/dataGenerated.xlsx
@@ -34,186 +34,1266 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>2026-02-08 09:42:00</t>
-  </si>
-  <si>
-    <t>William Anderson</t>
-  </si>
-  <si>
-    <t>6503885804</t>
-  </si>
-  <si>
-    <t>william12554@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:00:25</t>
-  </si>
-  <si>
-    <t>Kevin Martin</t>
-  </si>
-  <si>
-    <t>2022973898</t>
-  </si>
-  <si>
-    <t>kevin17832@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:05:50</t>
-  </si>
-  <si>
-    <t>Noah Fernandez</t>
-  </si>
-  <si>
-    <t>4152324975</t>
-  </si>
-  <si>
-    <t>noah41581@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:09:07</t>
-  </si>
-  <si>
-    <t>Amanda King</t>
-  </si>
-  <si>
-    <t>6173523882</t>
-  </si>
-  <si>
-    <t>amanda39733@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:25:13</t>
-  </si>
-  <si>
-    <t>Ava Wright</t>
-  </si>
-  <si>
-    <t>6469489000</t>
-  </si>
-  <si>
-    <t>ava5017@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:27:53</t>
-  </si>
-  <si>
-    <t>Sarah Theadore</t>
-  </si>
-  <si>
-    <t>2029648976</t>
-  </si>
-  <si>
-    <t>sarah65649@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:40:39</t>
-  </si>
-  <si>
-    <t>Mark Anderson</t>
-  </si>
-  <si>
-    <t>4159412846</t>
-  </si>
-  <si>
-    <t>mark30403@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:44:13</t>
-  </si>
-  <si>
-    <t>Anna Perez</t>
-  </si>
-  <si>
-    <t>2022629751</t>
-  </si>
-  <si>
-    <t>anna45724@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:48:47</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="420">
+  <si>
+    <t>2026-02-10 21:46:50</t>
+  </si>
+  <si>
+    <t>Grace Anderson</t>
+  </si>
+  <si>
+    <t>3058198167</t>
+  </si>
+  <si>
+    <t>grace12157@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 21:47:11</t>
+  </si>
+  <si>
+    <t>David Roberts</t>
+  </si>
+  <si>
+    <t>7026152528</t>
+  </si>
+  <si>
+    <t>david13193@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:02:36</t>
+  </si>
+  <si>
+    <t>Daniel Theadore</t>
+  </si>
+  <si>
+    <t>2012224381</t>
+  </si>
+  <si>
+    <t>daniel58342@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:02:40</t>
+  </si>
+  <si>
+    <t>Sophia Turner</t>
+  </si>
+  <si>
+    <t>8184107575</t>
+  </si>
+  <si>
+    <t>sophia57540@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:05:04</t>
+  </si>
+  <si>
+    <t>Lily Nelson</t>
+  </si>
+  <si>
+    <t>8184150580</t>
+  </si>
+  <si>
+    <t>lily98658@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:05:13</t>
+  </si>
+  <si>
+    <t>Caleb Theadore</t>
+  </si>
+  <si>
+    <t>2133206193</t>
+  </si>
+  <si>
+    <t>caleb4562@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:07:59</t>
+  </si>
+  <si>
+    <t>Natalie Phillips</t>
+  </si>
+  <si>
+    <t>2013172907</t>
+  </si>
+  <si>
+    <t>natalie48546@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:09:31</t>
+  </si>
+  <si>
+    <t>Samantha Lopez</t>
+  </si>
+  <si>
+    <t>3054139633</t>
+  </si>
+  <si>
+    <t>samantha60848@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:10:30</t>
+  </si>
+  <si>
+    <t>Amanda Perez</t>
+  </si>
+  <si>
+    <t>3128136663</t>
+  </si>
+  <si>
+    <t>amanda24333@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:11:55</t>
+  </si>
+  <si>
+    <t>Ryan Theadore</t>
+  </si>
+  <si>
+    <t>8182158568</t>
+  </si>
+  <si>
+    <t>ryan12682@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:12:54</t>
+  </si>
+  <si>
+    <t>Brian Young</t>
+  </si>
+  <si>
+    <t>2022143208</t>
+  </si>
+  <si>
+    <t>brian72040@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:26:17</t>
+  </si>
+  <si>
+    <t>Samuel Campbell</t>
+  </si>
+  <si>
+    <t>6465169702</t>
+  </si>
+  <si>
+    <t>samuel48273@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:26:18</t>
+  </si>
+  <si>
+    <t>Lauren Martin</t>
+  </si>
+  <si>
+    <t>4154429971</t>
+  </si>
+  <si>
+    <t>lauren48865@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:29:01</t>
+  </si>
+  <si>
+    <t>Ashley Perez</t>
+  </si>
+  <si>
+    <t>3059689298</t>
+  </si>
+  <si>
+    <t>ashley15566@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:29:07</t>
+  </si>
+  <si>
+    <t>Grace Lopez</t>
+  </si>
+  <si>
+    <t>6175380234</t>
+  </si>
+  <si>
+    <t>grace17395@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:31:54</t>
+  </si>
+  <si>
+    <t>Natalie Theadore</t>
+  </si>
+  <si>
+    <t>2029212398</t>
+  </si>
+  <si>
+    <t>natalie83391@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:32:22</t>
+  </si>
+  <si>
+    <t>Noah Carter</t>
+  </si>
+  <si>
+    <t>6179999431</t>
+  </si>
+  <si>
+    <t>noah87437@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:34:46</t>
+  </si>
+  <si>
+    <t>Sophia Young</t>
+  </si>
+  <si>
+    <t>2022663191</t>
+  </si>
+  <si>
+    <t>sophia52282@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:35:08</t>
+  </si>
+  <si>
+    <t>Daniel Harris</t>
+  </si>
+  <si>
+    <t>2138603991</t>
+  </si>
+  <si>
+    <t>daniel80662@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:37:34</t>
+  </si>
+  <si>
+    <t>Justin Johnson</t>
+  </si>
+  <si>
+    <t>4157186263</t>
+  </si>
+  <si>
+    <t>justin24707@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:37:52</t>
+  </si>
+  <si>
+    <t>Lauren Lopez</t>
+  </si>
+  <si>
+    <t>3054138823</t>
+  </si>
+  <si>
+    <t>lauren48197@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:40:54</t>
+  </si>
+  <si>
+    <t>Aaron Clark</t>
+  </si>
+  <si>
+    <t>3052142451</t>
+  </si>
+  <si>
+    <t>aaron29591@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:40:55</t>
+  </si>
+  <si>
+    <t>Sarah Hill</t>
+  </si>
+  <si>
+    <t>6462153670</t>
+  </si>
+  <si>
+    <t>sarah30902@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:43:42</t>
+  </si>
+  <si>
+    <t>Anna Mitchell</t>
+  </si>
+  <si>
+    <t>7023685384</t>
+  </si>
+  <si>
+    <t>anna95122@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:43:44</t>
+  </si>
+  <si>
+    <t>Samantha Williams</t>
+  </si>
+  <si>
+    <t>3054579943</t>
+  </si>
+  <si>
+    <t>samantha97143@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:46:30</t>
+  </si>
+  <si>
+    <t>Ben Johnson</t>
+  </si>
+  <si>
+    <t>2135713369</t>
+  </si>
+  <si>
+    <t>ben64224@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:46:31</t>
+  </si>
+  <si>
+    <t>Caleb Johnson</t>
+  </si>
+  <si>
+    <t>2016983147</t>
+  </si>
+  <si>
+    <t>caleb61289@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:49:16</t>
+  </si>
+  <si>
+    <t>Grace Hill</t>
+  </si>
+  <si>
+    <t>3059237125</t>
+  </si>
+  <si>
+    <t>grace29082@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:49:18</t>
+  </si>
+  <si>
+    <t>Hannah Turner</t>
+  </si>
+  <si>
+    <t>8188918976</t>
+  </si>
+  <si>
+    <t>hannah31214@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 22:52:09</t>
+  </si>
+  <si>
+    <t>Samantha Thomas</t>
+  </si>
+  <si>
+    <t>8189394597</t>
+  </si>
+  <si>
+    <t>samantha98711@mailinator.com</t>
+  </si>
+  <si>
+    <t>Nicole Scott</t>
+  </si>
+  <si>
+    <t>3056237127</t>
+  </si>
+  <si>
+    <t>nicole97739@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:01:13</t>
+  </si>
+  <si>
+    <t>Lily Adams</t>
+  </si>
+  <si>
+    <t>6465313347</t>
+  </si>
+  <si>
+    <t>lily28618@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:01:16</t>
+  </si>
+  <si>
+    <t>Madison Clark</t>
+  </si>
+  <si>
+    <t>4153126736</t>
+  </si>
+  <si>
+    <t>madison23856@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:01:17</t>
+  </si>
+  <si>
+    <t>Lauren Harris</t>
+  </si>
+  <si>
+    <t>2136151664</t>
+  </si>
+  <si>
+    <t>lauren23378@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:01:18</t>
+  </si>
+  <si>
+    <t>Rachel Clark</t>
+  </si>
+  <si>
+    <t>6463129048</t>
+  </si>
+  <si>
+    <t>rachel25963@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:04:25</t>
+  </si>
+  <si>
+    <t>Ryan Phillips</t>
+  </si>
+  <si>
+    <t>3126207894</t>
+  </si>
+  <si>
+    <t>ryan26818@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:04:27</t>
+  </si>
+  <si>
+    <t>Lily Wilson</t>
+  </si>
+  <si>
+    <t>7025159132</t>
+  </si>
+  <si>
+    <t>lily30706@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:04:32</t>
+  </si>
+  <si>
+    <t>Chris Taylor</t>
+  </si>
+  <si>
+    <t>4158162972</t>
+  </si>
+  <si>
+    <t>chris31313@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:04:38</t>
+  </si>
+  <si>
+    <t>7028110003</t>
+  </si>
+  <si>
+    <t>lauren34946@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:07:43</t>
+  </si>
+  <si>
+    <t>Matthew White</t>
+  </si>
+  <si>
+    <t>7026184413</t>
+  </si>
+  <si>
+    <t>matthew25043@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:07:46</t>
+  </si>
+  <si>
+    <t>Grace Brown</t>
+  </si>
+  <si>
+    <t>6173111019</t>
+  </si>
+  <si>
+    <t>grace26343@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:07:54</t>
+  </si>
+  <si>
+    <t>Ella Mitchell</t>
+  </si>
+  <si>
+    <t>3055855193</t>
+  </si>
+  <si>
+    <t>ella36413@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:07:58</t>
+  </si>
+  <si>
+    <t>Madison Hill</t>
+  </si>
+  <si>
+    <t>2137954272</t>
+  </si>
+  <si>
+    <t>madison38465@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:11:00</t>
+  </si>
+  <si>
+    <t>Michael Smith</t>
+  </si>
+  <si>
+    <t>2138863148</t>
+  </si>
+  <si>
+    <t>michael20334@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:11:03</t>
+  </si>
+  <si>
+    <t>Lauren Moore</t>
+  </si>
+  <si>
+    <t>6465412996</t>
+  </si>
+  <si>
+    <t>lauren27621@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:11:09</t>
+  </si>
+  <si>
+    <t>Chris Adams</t>
+  </si>
+  <si>
+    <t>3052209992</t>
+  </si>
+  <si>
+    <t>chris29277@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:14:00</t>
+  </si>
+  <si>
+    <t>Ben Perez</t>
+  </si>
+  <si>
+    <t>3056830651</t>
+  </si>
+  <si>
+    <t>ben6199@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:14:04</t>
+  </si>
+  <si>
+    <t>Chloe Martin</t>
+  </si>
+  <si>
+    <t>3055147623</t>
+  </si>
+  <si>
+    <t>chloe8909@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:14:16</t>
+  </si>
+  <si>
+    <t>Ethan Taylor</t>
+  </si>
+  <si>
+    <t>2025151300</t>
+  </si>
+  <si>
+    <t>ethan14875@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:14:37</t>
+  </si>
+  <si>
+    <t>Sophia Hill</t>
+  </si>
+  <si>
+    <t>2125128073</t>
+  </si>
+  <si>
+    <t>sophia35162@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:17:14</t>
+  </si>
+  <si>
+    <t>Kevin Perez</t>
+  </si>
+  <si>
+    <t>2029801891</t>
+  </si>
+  <si>
+    <t>kevin92910@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:17:19</t>
+  </si>
+  <si>
+    <t>Lauren Smith</t>
+  </si>
+  <si>
+    <t>2025131499</t>
+  </si>
+  <si>
+    <t>lauren98621@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:17:29</t>
+  </si>
+  <si>
+    <t>Mark Davis</t>
+  </si>
+  <si>
+    <t>2132130692</t>
+  </si>
+  <si>
+    <t>mark9200@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:17:52</t>
+  </si>
+  <si>
+    <t>Daniel Lewis</t>
+  </si>
+  <si>
+    <t>6469781378</t>
+  </si>
+  <si>
+    <t>daniel23850@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:20:31</t>
+  </si>
+  <si>
+    <t>Natalie Turner</t>
+  </si>
+  <si>
+    <t>2024111591</t>
+  </si>
+  <si>
+    <t>natalie90648@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:20:32</t>
+  </si>
+  <si>
+    <t>Melissa Phillips</t>
+  </si>
+  <si>
+    <t>7022116435</t>
+  </si>
+  <si>
+    <t>melissa95350@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:20:48</t>
+  </si>
+  <si>
+    <t>Ella Green</t>
+  </si>
+  <si>
+    <t>2017115333</t>
+  </si>
+  <si>
+    <t>ella2760@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:21:11</t>
+  </si>
+  <si>
+    <t>Alex Wilson</t>
+  </si>
+  <si>
+    <t>2027928468</t>
+  </si>
+  <si>
+    <t>alex19621@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:23:47</t>
+  </si>
+  <si>
+    <t>Ray Baker</t>
+  </si>
+  <si>
+    <t>6469199091</t>
+  </si>
+  <si>
+    <t>ray85491@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:23:48</t>
+  </si>
+  <si>
+    <t>Alex Lewis</t>
+  </si>
+  <si>
+    <t>6507118173</t>
+  </si>
+  <si>
+    <t>alex89390@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:24:02</t>
+  </si>
+  <si>
+    <t>Noah Thomas</t>
+  </si>
+  <si>
+    <t>3052446728</t>
+  </si>
+  <si>
+    <t>noah96311@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:24:13</t>
+  </si>
+  <si>
+    <t>Joshua Harris</t>
+  </si>
+  <si>
+    <t>6502101597</t>
+  </si>
+  <si>
+    <t>joshua16457@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:27:19</t>
+  </si>
+  <si>
+    <t>Lucas Green</t>
+  </si>
+  <si>
+    <t>2136468405</t>
+  </si>
+  <si>
+    <t>lucas92165@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:27:20</t>
+  </si>
+  <si>
+    <t>Ethan Wilson</t>
+  </si>
+  <si>
+    <t>2013211541</t>
+  </si>
+  <si>
+    <t>ethan91633@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:27:24</t>
+  </si>
+  <si>
+    <t>David Perez</t>
+  </si>
+  <si>
+    <t>7022117223</t>
+  </si>
+  <si>
+    <t>david8423@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:27:30</t>
+  </si>
+  <si>
+    <t>James Anderson</t>
+  </si>
+  <si>
+    <t>6173470851</t>
+  </si>
+  <si>
+    <t>james4937@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:30:53</t>
+  </si>
+  <si>
+    <t>James Wilson</t>
+  </si>
+  <si>
+    <t>2123175768</t>
+  </si>
+  <si>
+    <t>james4001@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:30:54</t>
+  </si>
+  <si>
+    <t>Lucas Lopez</t>
+  </si>
+  <si>
+    <t>2126678562</t>
+  </si>
+  <si>
+    <t>lucas5018@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:31:00</t>
+  </si>
+  <si>
+    <t>Chloe Mitchell</t>
+  </si>
+  <si>
+    <t>2125130480</t>
+  </si>
+  <si>
+    <t>chloe19980@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:31:06</t>
+  </si>
+  <si>
+    <t>Amanda Lewis</t>
+  </si>
+  <si>
+    <t>6504963262</t>
+  </si>
+  <si>
+    <t>amanda20894@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:34:15</t>
+  </si>
+  <si>
+    <t>Hannah Williams</t>
+  </si>
+  <si>
+    <t>2023103590</t>
+  </si>
+  <si>
+    <t>hannah10735@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:34:28</t>
+  </si>
+  <si>
+    <t>3053792544</t>
+  </si>
+  <si>
+    <t>lily19894@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:34:35</t>
+  </si>
+  <si>
+    <t>Elizabeth Perez</t>
+  </si>
+  <si>
+    <t>4158190620</t>
+  </si>
+  <si>
+    <t>elizabeth19573@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:36:57</t>
+  </si>
+  <si>
+    <t>Liam Turner</t>
+  </si>
+  <si>
+    <t>4155206643</t>
+  </si>
+  <si>
+    <t>liam71290@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:37:23</t>
+  </si>
+  <si>
+    <t>Hannah Brown</t>
+  </si>
+  <si>
+    <t>7026138817</t>
+  </si>
+  <si>
+    <t>hannah676@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:37:35</t>
+  </si>
+  <si>
+    <t>Ava White</t>
+  </si>
+  <si>
+    <t>2019148239</t>
+  </si>
+  <si>
+    <t>ava16127@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:37:41</t>
+  </si>
+  <si>
+    <t>John Turner</t>
+  </si>
+  <si>
+    <t>2022127391</t>
+  </si>
+  <si>
+    <t>john20663@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:40:08</t>
+  </si>
+  <si>
+    <t>Brian Adams</t>
+  </si>
+  <si>
+    <t>3057107547</t>
+  </si>
+  <si>
+    <t>brian60546@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:40:32</t>
+  </si>
+  <si>
+    <t>3124788479</t>
+  </si>
+  <si>
+    <t>sophia90022@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:40:44</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>2023155899</t>
+  </si>
+  <si>
+    <t>mark2393@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:40:50</t>
+  </si>
+  <si>
+    <t>Ella Thomas</t>
+  </si>
+  <si>
+    <t>2027177049</t>
+  </si>
+  <si>
+    <t>ella13845@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:43:36</t>
+  </si>
+  <si>
+    <t>Ava Mitchell</t>
+  </si>
+  <si>
+    <t>2128182936</t>
+  </si>
+  <si>
+    <t>ava55092@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:43:55</t>
+  </si>
+  <si>
+    <t>Ryan Harris</t>
+  </si>
+  <si>
+    <t>2013153732</t>
+  </si>
+  <si>
+    <t>ryan82754@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:44:10</t>
+  </si>
+  <si>
+    <t>Jennifer Williams</t>
+  </si>
+  <si>
+    <t>4159147159</t>
+  </si>
+  <si>
+    <t>jennifer97071@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:44:16</t>
+  </si>
+  <si>
+    <t>Samantha Brown</t>
+  </si>
+  <si>
+    <t>3125197396</t>
+  </si>
+  <si>
+    <t>samantha7344@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:50:08</t>
+  </si>
+  <si>
+    <t>Alex White</t>
+  </si>
+  <si>
+    <t>7023295269</t>
+  </si>
+  <si>
+    <t>alex44502@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:50:10</t>
   </si>
   <si>
     <t>Lucas Campbell</t>
   </si>
   <si>
-    <t>2019901971</t>
-  </si>
-  <si>
-    <t>lucas18809@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 10:55:30</t>
-  </si>
-  <si>
-    <t>Daniel Turner</t>
-  </si>
-  <si>
-    <t>3053304765</t>
-  </si>
-  <si>
-    <t>daniel21429@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 11:18:39</t>
-  </si>
-  <si>
-    <t>Thomas Nelson</t>
-  </si>
-  <si>
-    <t>6505665339</t>
-  </si>
-  <si>
-    <t>thomas9587@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 11:24:03</t>
-  </si>
-  <si>
-    <t>Chloe Nelson</t>
-  </si>
-  <si>
-    <t>6509016559</t>
-  </si>
-  <si>
-    <t>chloe34996@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 11:32:06</t>
-  </si>
-  <si>
-    <t>Elizabeth Moore</t>
-  </si>
-  <si>
-    <t>3127499466</t>
-  </si>
-  <si>
-    <t>elizabeth18388@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 11:35:44</t>
-  </si>
-  <si>
-    <t>Ryan Phillips</t>
-  </si>
-  <si>
-    <t>6173717907</t>
-  </si>
-  <si>
-    <t>ryan36357@mailinator.com</t>
-  </si>
-  <si>
-    <t>2026-02-08 11:46:05</t>
-  </si>
-  <si>
-    <t>Elizabeth Lewis</t>
-  </si>
-  <si>
-    <t>4157336114</t>
-  </si>
-  <si>
-    <t>elizabeth55251@mailinator.com</t>
+    <t>4154166127</t>
+  </si>
+  <si>
+    <t>lucas69651@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:50:11</t>
+  </si>
+  <si>
+    <t>Anna Roberts</t>
+  </si>
+  <si>
+    <t>3122127671</t>
+  </si>
+  <si>
+    <t>anna65988@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:50:14</t>
+  </si>
+  <si>
+    <t>Rachel King</t>
+  </si>
+  <si>
+    <t>6505501263</t>
+  </si>
+  <si>
+    <t>rachel75644@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:53:40</t>
+  </si>
+  <si>
+    <t>Sarah Carter</t>
+  </si>
+  <si>
+    <t>2136192989</t>
+  </si>
+  <si>
+    <t>sarah68372@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:53:42</t>
+  </si>
+  <si>
+    <t>Caleb Moore</t>
+  </si>
+  <si>
+    <t>8182702352</t>
+  </si>
+  <si>
+    <t>caleb71105@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:53:43</t>
+  </si>
+  <si>
+    <t>Amanda Moore</t>
+  </si>
+  <si>
+    <t>2127139152</t>
+  </si>
+  <si>
+    <t>amanda69654@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:53:48</t>
+  </si>
+  <si>
+    <t>Michael Campbell</t>
+  </si>
+  <si>
+    <t>6467134507</t>
+  </si>
+  <si>
+    <t>michael82683@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:56:58</t>
+  </si>
+  <si>
+    <t>2026214144</t>
+  </si>
+  <si>
+    <t>alex74217@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:57:10</t>
+  </si>
+  <si>
+    <t>Ethan Brown</t>
+  </si>
+  <si>
+    <t>8188131877</t>
+  </si>
+  <si>
+    <t>ethan81677@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-10 23:57:13</t>
+  </si>
+  <si>
+    <t>Ashley Williams</t>
+  </si>
+  <si>
+    <t>6175139375</t>
+  </si>
+  <si>
+    <t>ashley81436@mailinator.com</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>8182671742</t>
+  </si>
+  <si>
+    <t>michael81047@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-11 00:00:35</t>
+  </si>
+  <si>
+    <t>Jacob Harris</t>
+  </si>
+  <si>
+    <t>3055120722</t>
+  </si>
+  <si>
+    <t>jacob82274@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-11 00:00:53</t>
+  </si>
+  <si>
+    <t>Megan Phillips</t>
+  </si>
+  <si>
+    <t>2127159559</t>
+  </si>
+  <si>
+    <t>megan96323@mailinator.com</t>
+  </si>
+  <si>
+    <t>William Williams</t>
+  </si>
+  <si>
+    <t>2135147548</t>
+  </si>
+  <si>
+    <t>william233@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-11 00:00:54</t>
+  </si>
+  <si>
+    <t>Melissa Campbell</t>
+  </si>
+  <si>
+    <t>7022159078</t>
+  </si>
+  <si>
+    <t>melissa97516@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-11 00:04:04</t>
+  </si>
+  <si>
+    <t>Liam Campbell</t>
+  </si>
+  <si>
+    <t>3054314470</t>
+  </si>
+  <si>
+    <t>liam92790@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-11 23:59:04</t>
+  </si>
+  <si>
+    <t>Anna White</t>
+  </si>
+  <si>
+    <t>3058172998</t>
+  </si>
+  <si>
+    <t>anna27720@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-12 02:23:17</t>
+  </si>
+  <si>
+    <t>Liam Lopez</t>
+  </si>
+  <si>
+    <t>6506129607</t>
+  </si>
+  <si>
+    <t>liam34613@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-12 02:59:06</t>
+  </si>
+  <si>
+    <t>Megan White</t>
+  </si>
+  <si>
+    <t>6506808075</t>
+  </si>
+  <si>
+    <t>megan93753@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-12 03:19:10</t>
+  </si>
+  <si>
+    <t>7024172568</t>
+  </si>
+  <si>
+    <t>anna4544@mailinator.com</t>
+  </si>
+  <si>
+    <t>2026-02-12 03:24:47</t>
+  </si>
+  <si>
+    <t>Justin Smith</t>
+  </si>
+  <si>
+    <t>6178162098</t>
+  </si>
+  <si>
+    <t>justin48061@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -585,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,273 +1686,1519 @@
     </row>
     <row r="2">
       <c r="A2" t="str" s="0">
-        <v>2026-02-08 02:42:39</v>
+        <v>2026-02-10 21:25:03</v>
       </c>
       <c r="B2" t="str" s="0">
-        <v>Lily Martin</v>
+        <v>Sophia Hill</v>
       </c>
       <c r="C2" t="str" s="0">
-        <v>9498736462</v>
+        <v>3126179358</v>
       </c>
       <c r="D2" t="str" s="0">
-        <v>lily50559@mailinator.com</v>
+        <v>sophia10923@mailinator.com</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str" s="0">
-        <v>2026-02-08 02:43:09</v>
-      </c>
-      <c r="B3" t="str" s="0">
-        <v>Caleb Fernandez</v>
-      </c>
-      <c r="C3" t="str" s="0">
-        <v>2135764101</v>
-      </c>
-      <c r="D3" t="str" s="0">
-        <v>caleb80862@mailinator.com</v>
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str" s="0">
-        <v>2026-02-08 02:45:05</v>
-      </c>
-      <c r="B4" t="str" s="0">
-        <v>Amanda Wilson</v>
-      </c>
-      <c r="C4" t="str" s="0">
-        <v>9498882609</v>
-      </c>
-      <c r="D4" t="str" s="0">
-        <v>amanda97078@mailinator.com</v>
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str" s="0">
-        <v>2026-02-08 02:45:34</v>
-      </c>
-      <c r="B5" t="str" s="0">
-        <v>Nathan Wright</v>
-      </c>
-      <c r="C5" t="str" s="0">
-        <v>8185909974</v>
-      </c>
-      <c r="D5" t="str" s="0">
-        <v>nathan26666@mailinator.com</v>
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/src/stored-data/dataGenerated.xlsx
+++ b/app/src/stored-data/dataGenerated.xlsx
@@ -12,9 +12,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>FILE_PATH</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\4443B961253CFB9F5E5E91C3B2FFD489_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\4646A8C4FADC5248E3A27A41502B14B9_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\4646B9230540634CE25C9A5F72FAD082_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\4D4E68BEFAD1A7C6FE5F984A7A2CB587_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\4E4F75BD6902BEC6825CB2E3AC5697BE_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\544385CDE1500B9D1EFB1BDB92E922A0_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\56413E7461200E1D41E93FE3059DF5A5_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\574268B50E3E497368099D9C900B8B83_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\58413479341C86E5E742C438921CDAA4_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\58483D892CFE836FE1EEDFFA70265F8D_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\5B45485BFD6A85BF17AE3DDC17B2C396_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\6143F43F4269C46BE9134DEE2E4081A8_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\61443E1BDDCBD0BC3085467DD0912BBA_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\614E764F73C3979345BBB70503403681_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\634F61E76E69F38D60200049C41D69A5_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\64488922F58209EC1AFED0974627FF8F_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\6C4254F4DC791DDBEEEE780933E4DA9C_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\724E289CFE6BE0032A527A7343996992_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\724FD789C80BD901D2924696A3FFF397_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\774929DE68A31EB473A684A91113999D_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\7D425F0C35A09CD69AAB27C51B448EA2_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\8342ED91F75A664E65290B05C5FEDAA7_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\834840559630E8E0692A6DBF030AB885_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\86411649DE96ED6282FCB9159A256BAE_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\8846F5E4A9D407A394E8F791257CAD91_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\8A4B3309AD4CB14B0646941C7721AFA2_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\8E41387D3571978BECFEA3AD50CCFAA1_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\9143401EC9EB3FCC18BFDB355E40ED94_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\9346B0EF52F66972BF3F8DB45B45DCB3_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\9444E01302E7849898107ADE9A4CABA2_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\A04D2A8D3C547F35AC48319791F1CAB4_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\A34F6937131F35AECFD98785ED2A50BB_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\A445370BD1C8DEACF1719A6BE1C1599F_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\A44E2C24C9C38E2C07D9F3569C41E8A8_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\AA4BC8B3DFF390DC71321D44801C8185_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\AB43D085664F9D030BB903E0734AD6BC_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\AB4655109868E866D8F57C5C52C0268E_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\AD40B8EEB8C929957723A0C3256884BF_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\AD474C64C81B6897FD3C5E7D8A37D58B_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\AF462FF6D889797C3B4DE14518D3448C_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\B142DA3E762098944BD7B4729AC56893_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\B24BF13DFE1C7C9793516FFE07845391_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\B5441D10BFCE6AC326128F116A5478BD_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\BF45A2F09C62DCCE79C1579D924599A8_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\BF4AD52396A6B5329FB5389856D4939B_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\C34A2C44763446BEB3828416687AA181_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\C54055E84462AF0F38086E4C9C008DA3_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\C64130B4AE56DA38D676F5DE25772D9E_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\D74C6271F42BE49ACCD9696F32AD1296_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\DC4D1B64F826BA6C294644F9C7B67DAA_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\E0484C9F81000CF8A760CA831924ED9C_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\E34FF2C18AA7E51FB9967AA4A8E6CDB8_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\EA43CE8645EA357253F0484C0C626B9E_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\EB414BEFAB550655DB0B4A5CB4E4E8B1_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\F046222228A0CBD15BB383844C9329BA_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\F047EAA10E03AEDA65C99250D19A7282_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\F54EF092F229E4FEC6F7A04745945582_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\F7462D9B16A48294113A0DD04D177F92_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\FC4671C91089B60F952CFC66E977429B_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\FE44A5FC5B415DA7DA69B97611CF1CA2_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\FF4879A27E732B9B123127C59F46AEA7_video_dashinit.mp4</t>
+  </si>
+  <si>
+    <t>C:\automation-frameworks\tfm-automation\app\src\stored-data\media\3D407C7BBE64776848B421776BC6FA90_video_dashinit.mp4</t>
   </si>
 </sst>
 </file>
@@ -59,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,6 +256,316 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
